--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H2">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.472367</v>
       </c>
       <c r="O2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q2">
-        <v>0.3140311036714444</v>
+        <v>0.5597276551696666</v>
       </c>
       <c r="R2">
-        <v>2.826279933043</v>
+        <v>5.037548896526999</v>
       </c>
       <c r="S2">
-        <v>0.003055609889623038</v>
+        <v>0.00486961518918499</v>
       </c>
       <c r="T2">
-        <v>0.003055609889623039</v>
+        <v>0.00486961518918499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H3">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N3">
         <v>20.219269</v>
       </c>
       <c r="O3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q3">
-        <v>13.44183518217789</v>
+        <v>23.95866778715433</v>
       </c>
       <c r="R3">
-        <v>120.976516639601</v>
+        <v>215.628010084389</v>
       </c>
       <c r="S3">
-        <v>0.1307927910233961</v>
+        <v>0.2084397501023933</v>
       </c>
       <c r="T3">
-        <v>0.1307927910233961</v>
+        <v>0.2084397501023933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H4">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N4">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O4">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P4">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q4">
-        <v>0.1385669300174444</v>
+        <v>0.1824811193333333</v>
       </c>
       <c r="R4">
-        <v>1.247102370157</v>
+        <v>1.642330074</v>
       </c>
       <c r="S4">
-        <v>0.001348294728725332</v>
+        <v>0.001587580714009422</v>
       </c>
       <c r="T4">
-        <v>0.001348294728725332</v>
+        <v>0.001587580714009422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>15.422326</v>
       </c>
       <c r="I5">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J5">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.472367</v>
       </c>
       <c r="O5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q5">
         <v>0.8094442072935555</v>
@@ -762,10 +762,10 @@
         <v>7.284997865641999</v>
       </c>
       <c r="S5">
-        <v>0.007876117034228594</v>
+        <v>0.007042142317301948</v>
       </c>
       <c r="T5">
-        <v>0.007876117034228596</v>
+        <v>0.007042142317301947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>15.422326</v>
       </c>
       <c r="I6">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J6">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N6">
         <v>20.219269</v>
       </c>
       <c r="O6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q6">
-        <v>34.6475731110771</v>
+        <v>34.64757311107711</v>
       </c>
       <c r="R6">
-        <v>311.8281579996939</v>
+        <v>311.828157999694</v>
       </c>
       <c r="S6">
-        <v>0.3371305129074431</v>
+        <v>0.3014329321265276</v>
       </c>
       <c r="T6">
-        <v>0.3371305129074431</v>
+        <v>0.3014329321265276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N7">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O7">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P7">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q7">
-        <v>0.3571690750175555</v>
+        <v>0.2638931337777778</v>
       </c>
       <c r="R7">
-        <v>3.214521675157999</v>
+        <v>2.375038204</v>
       </c>
       <c r="S7">
-        <v>0.003475354336343073</v>
+        <v>0.002295862998186792</v>
       </c>
       <c r="T7">
-        <v>0.003475354336343074</v>
+        <v>0.002295862998186791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H8">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I8">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J8">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.472367</v>
       </c>
       <c r="O8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q8">
-        <v>0.1324397926545555</v>
+        <v>0.4118556851103334</v>
       </c>
       <c r="R8">
-        <v>1.191958133891</v>
+        <v>3.706701165993</v>
       </c>
       <c r="S8">
-        <v>0.00128867597981086</v>
+        <v>0.003583133120977436</v>
       </c>
       <c r="T8">
-        <v>0.001288675979810861</v>
+        <v>0.003583133120977436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H9">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I9">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J9">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N9">
         <v>20.219269</v>
       </c>
       <c r="O9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q9">
-        <v>5.66897305270411</v>
+        <v>17.62913346280567</v>
       </c>
       <c r="R9">
-        <v>51.02075747433699</v>
+        <v>158.662201165251</v>
       </c>
       <c r="S9">
-        <v>0.05516068287927471</v>
+        <v>0.1533729757494751</v>
       </c>
       <c r="T9">
-        <v>0.05516068287927471</v>
+        <v>0.1533729757494751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H10">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I10">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J10">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N10">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O10">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P10">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q10">
-        <v>0.05843935605655554</v>
+        <v>0.1342722406666667</v>
       </c>
       <c r="R10">
-        <v>0.5259542045089999</v>
+        <v>1.208450166</v>
       </c>
       <c r="S10">
-        <v>0.0005686311713136546</v>
+        <v>0.001168164796928078</v>
       </c>
       <c r="T10">
-        <v>0.0005686311713136547</v>
+        <v>0.001168164796928078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H11">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I11">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J11">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.472367</v>
       </c>
       <c r="O11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q11">
-        <v>0.7920380081957777</v>
+        <v>0.6689658829738889</v>
       </c>
       <c r="R11">
-        <v>7.128342073762</v>
+        <v>6.020692946765</v>
       </c>
       <c r="S11">
-        <v>0.007706749880841254</v>
+        <v>0.005819984763462762</v>
       </c>
       <c r="T11">
-        <v>0.007706749880841255</v>
+        <v>0.005819984763462761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H12">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I12">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J12">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N12">
         <v>20.219269</v>
       </c>
       <c r="O12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q12">
-        <v>33.90251551428155</v>
+        <v>28.63451752487278</v>
       </c>
       <c r="R12">
-        <v>305.1226396285339</v>
+        <v>257.710657723855</v>
       </c>
       <c r="S12">
-        <v>0.329880895482638</v>
+        <v>0.2491195140819637</v>
       </c>
       <c r="T12">
-        <v>0.329880895482638</v>
+        <v>0.2491195140819637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H13">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I13">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J13">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N13">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O13">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P13">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q13">
-        <v>0.3494885505597777</v>
+        <v>0.2180947144444445</v>
       </c>
       <c r="R13">
-        <v>3.145396955038</v>
+        <v>1.96285243</v>
       </c>
       <c r="S13">
-        <v>0.003400620699399799</v>
+        <v>0.001897418010939091</v>
       </c>
       <c r="T13">
-        <v>0.0034006206993998</v>
+        <v>0.00189741801093909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H14">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I14">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J14">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.472367</v>
       </c>
       <c r="O14">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P14">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q14">
-        <v>0.2748189217822222</v>
+        <v>0.1546394670978889</v>
       </c>
       <c r="R14">
-        <v>2.47337029604</v>
+        <v>1.391755203881</v>
       </c>
       <c r="S14">
-        <v>0.002674064465066101</v>
+        <v>0.001345359106115795</v>
       </c>
       <c r="T14">
-        <v>0.002674064465066102</v>
+        <v>0.001345359106115794</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H15">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I15">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J15">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N15">
         <v>20.219269</v>
       </c>
       <c r="O15">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P15">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q15">
-        <v>11.76339097736444</v>
+        <v>6.619211298140777</v>
       </c>
       <c r="R15">
-        <v>105.87051879628</v>
+        <v>59.572901683267</v>
       </c>
       <c r="S15">
-        <v>0.1144610625689614</v>
+        <v>0.05758695604933196</v>
       </c>
       <c r="T15">
-        <v>0.1144610625689614</v>
+        <v>0.05758695604933196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H16">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I16">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J16">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N16">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O16">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P16">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q16">
-        <v>0.1212644666622222</v>
+        <v>0.05041520244444444</v>
       </c>
       <c r="R16">
-        <v>1.09138019996</v>
+        <v>0.4537368219999999</v>
       </c>
       <c r="S16">
-        <v>0.00117993695293516</v>
+        <v>0.0004386108732020491</v>
       </c>
       <c r="T16">
-        <v>0.00117993695293516</v>
+        <v>0.0004386108732020491</v>
       </c>
     </row>
   </sheetData>
